--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2D4A35-91E6-4762-8743-F2A3B0B71CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62290F1E-DFDF-48DB-AFA5-106B76F73F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -433,8 +433,8 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,7 +497,8 @@
         <v>108</v>
       </c>
       <c r="D3">
-        <v>0.12</v>
+        <f>IF(MOD(A3,2)=1,D2+0.02,IF(MOD(A3,2)=0,D2+0.1,0))</f>
+        <v>0.12000000000000001</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -511,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B48" si="0">B3*100</f>
+        <f t="shared" ref="B4:B46" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -519,7 +520,8 @@
         <v>108</v>
       </c>
       <c r="D4">
-        <v>0.14000000000000001</v>
+        <f t="shared" ref="D4:D46" si="2">IF(MOD(A4,2)=1,D3+0.02,IF(MOD(A4,2)=0,D3+0.1,0))</f>
+        <v>0.22000000000000003</v>
       </c>
       <c r="E4">
         <f>E2+1</f>
@@ -543,14 +545,15 @@
         <v>108</v>
       </c>
       <c r="D5">
-        <v>0.16</v>
+        <f t="shared" si="2"/>
+        <v>0.24000000000000002</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:F44" si="2">E3+1</f>
+        <f t="shared" ref="E5:F44" si="3">E3+1</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -567,14 +570,15 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <v>0.18</v>
+        <f t="shared" si="2"/>
+        <v>0.34</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -591,14 +595,15 @@
         <v>108</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.36000000000000004</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -615,14 +620,15 @@
         <v>108</v>
       </c>
       <c r="D8">
-        <v>0.22</v>
+        <f t="shared" si="2"/>
+        <v>0.46000000000000008</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -639,14 +645,15 @@
         <v>108</v>
       </c>
       <c r="D9">
-        <v>0.24</v>
+        <f t="shared" si="2"/>
+        <v>0.48000000000000009</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -663,14 +670,15 @@
         <v>108</v>
       </c>
       <c r="D10">
-        <v>0.26</v>
+        <f t="shared" si="2"/>
+        <v>0.58000000000000007</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -683,18 +691,19 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C48" si="3">C10</f>
+        <f t="shared" ref="C11:C46" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
-        <v>0.28000000000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -707,18 +716,19 @@
         <v>9.9999999999999969E+127</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -731,18 +741,19 @@
         <v>9.9999999999999969E+129</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D13">
-        <v>0.32</v>
+        <f t="shared" si="2"/>
+        <v>0.72000000000000008</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -755,18 +766,19 @@
         <v>9.9999999999999968E+131</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D14">
-        <v>0.34</v>
+        <f t="shared" si="2"/>
+        <v>0.82000000000000006</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -779,18 +791,19 @@
         <v>9.9999999999999972E+133</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D15">
-        <v>0.36</v>
+        <f t="shared" si="2"/>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -803,18 +816,19 @@
         <v>9.9999999999999967E+135</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D16">
-        <v>0.38</v>
+        <f t="shared" si="2"/>
+        <v>0.94000000000000006</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -827,18 +841,19 @@
         <v>9.999999999999997E+137</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D17">
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.96000000000000008</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -851,18 +866,19 @@
         <v>9.9999999999999964E+139</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D18">
-        <v>0.42</v>
+        <f t="shared" si="2"/>
+        <v>1.06</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -875,18 +891,19 @@
         <v>9.9999999999999964E+141</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D19">
-        <v>0.44</v>
+        <f t="shared" si="2"/>
+        <v>1.08</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -899,18 +916,19 @@
         <v>9.9999999999999968E+143</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D20">
-        <v>0.46</v>
+        <f t="shared" si="2"/>
+        <v>1.1800000000000002</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -923,18 +941,19 @@
         <v>9.9999999999999971E+145</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D21">
-        <v>0.48</v>
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -947,18 +966,19 @@
         <v>9.9999999999999977E+147</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>1.3000000000000003</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -971,18 +991,19 @@
         <v>9.999999999999998E+149</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D23">
-        <v>0.52</v>
+        <f>IF(MOD(A23,2)=1,D22+0.03,IF(MOD(A23,2)=0,D22+0.15,0))</f>
+        <v>1.3300000000000003</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -995,18 +1016,19 @@
         <v>9.9999999999999981E+151</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D24">
-        <v>0.54</v>
+        <f t="shared" ref="D24:D46" si="5">IF(MOD(A24,2)=1,D23+0.03,IF(MOD(A24,2)=0,D23+0.15,0))</f>
+        <v>1.4800000000000002</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -1019,18 +1041,19 @@
         <v>9.9999999999999989E+153</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D25">
-        <v>0.56000000000000005</v>
+        <f t="shared" si="5"/>
+        <v>1.5100000000000002</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -1043,18 +1066,19 @@
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D26">
-        <v>0.57999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>1.6600000000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -1067,18 +1091,19 @@
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D27">
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>1.6900000000000002</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -1091,18 +1116,19 @@
         <v>1E+160</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D28">
-        <v>0.62</v>
+        <f t="shared" si="5"/>
+        <v>1.84</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -1115,18 +1141,19 @@
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D29">
-        <v>0.64</v>
+        <f t="shared" si="5"/>
+        <v>1.87</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -1139,18 +1166,19 @@
         <v>1E+164</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D30">
-        <v>0.66</v>
+        <f t="shared" si="5"/>
+        <v>2.02</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -1163,18 +1191,19 @@
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D31">
-        <v>0.68</v>
+        <f t="shared" si="5"/>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -1187,18 +1216,19 @@
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D32">
-        <v>0.7</v>
+        <f t="shared" si="5"/>
+        <v>2.1999999999999997</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -1211,18 +1241,19 @@
         <v>9.999999999999999E+169</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D33">
-        <v>0.72</v>
+        <f t="shared" si="5"/>
+        <v>2.2299999999999995</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -1235,18 +1266,19 @@
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D34">
-        <v>0.74</v>
+        <f t="shared" si="5"/>
+        <v>2.3799999999999994</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -1259,18 +1291,19 @@
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D35">
-        <v>0.76</v>
+        <f t="shared" si="5"/>
+        <v>2.4099999999999993</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -1283,18 +1316,19 @@
         <v>9.9999999999999987E+175</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D36">
-        <v>0.78</v>
+        <f t="shared" si="5"/>
+        <v>2.5599999999999992</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -1307,18 +1341,19 @@
         <v>9.9999999999999987E+177</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <f t="shared" si="5"/>
+        <v>2.589999999999999</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -1331,18 +1366,19 @@
         <v>9.9999999999999989E+179</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D38">
-        <v>0.82</v>
+        <f t="shared" si="5"/>
+        <v>2.7399999999999989</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -1355,18 +1391,19 @@
         <v>9.9999999999999992E+181</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D39">
-        <v>0.84</v>
+        <f t="shared" si="5"/>
+        <v>2.7699999999999987</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -1379,18 +1416,19 @@
         <v>9.9999999999999983E+183</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D40">
-        <v>0.86</v>
+        <f t="shared" si="5"/>
+        <v>2.9199999999999986</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -1403,18 +1441,19 @@
         <v>9.9999999999999986E+185</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D41">
-        <v>0.88</v>
+        <f t="shared" si="5"/>
+        <v>2.9499999999999984</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -1427,18 +1466,19 @@
         <v>9.9999999999999987E+187</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D42">
-        <v>0.9</v>
+        <f t="shared" si="5"/>
+        <v>3.0999999999999983</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -1451,18 +1491,19 @@
         <v>9.9999999999999987E+189</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D43">
-        <v>0.92</v>
+        <f t="shared" si="5"/>
+        <v>3.1299999999999981</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -1475,18 +1516,19 @@
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D44">
-        <v>0.94</v>
+        <f t="shared" si="5"/>
+        <v>3.279999999999998</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -1499,18 +1541,19 @@
         <v>9.9999999999999994E+193</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D45">
-        <v>0.96</v>
+        <f t="shared" si="5"/>
+        <v>3.3099999999999978</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:F45" si="4">E43+1</f>
+        <f t="shared" ref="E45:F45" si="6">E43+1</f>
         <v>21</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
@@ -1523,18 +1566,19 @@
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D46">
-        <v>0.98</v>
+        <f t="shared" si="5"/>
+        <v>3.4599999999999977</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:F46" si="5">E44+1</f>
+        <f t="shared" ref="E46:F46" si="7">E44+1</f>
         <v>22</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
     </row>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62290F1E-DFDF-48DB-AFA5-106B76F73F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DA59B-AB3C-4133-A9D7-B75393D681B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTower" sheetId="1" r:id="rId1"/>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B46" si="0">B3*100</f>
+        <f t="shared" ref="B4:B49" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -520,7 +520,7 @@
         <v>108</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D46" si="2">IF(MOD(A4,2)=1,D3+0.02,IF(MOD(A4,2)=0,D3+0.1,0))</f>
+        <f t="shared" ref="D4:D22" si="2">IF(MOD(A4,2)=1,D3+0.02,IF(MOD(A4,2)=0,D3+0.1,0))</f>
         <v>0.22000000000000003</v>
       </c>
       <c r="E4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C46" si="4">C10</f>
+        <f t="shared" ref="C11:C49" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1574,12 +1574,87 @@
         <v>3.4599999999999977</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:F46" si="7">E44+1</f>
+        <f t="shared" ref="E46:F47" si="7">E44+1</f>
         <v>22</v>
       </c>
       <c r="F46">
         <f t="shared" si="7"/>
         <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D49" si="8">IF(MOD(A47,2)=1,D46+0.03,IF(MOD(A47,2)=0,D46+0.15,0))</f>
+        <v>3.4899999999999975</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="8"/>
+        <v>3.6399999999999975</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:F48" si="9">E46+1</f>
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="8"/>
+        <v>3.6699999999999973</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:F49" si="10">E47+1</f>
+        <v>23</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="10"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DA59B-AB3C-4133-A9D7-B75393D681B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A2A21-73C2-48D9-8BFE-64C38B6E005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTower" sheetId="1" r:id="rId1"/>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B49" si="0">B3*100</f>
+        <f t="shared" ref="B4:B52" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C49" si="4">C10</f>
+        <f t="shared" ref="C11:C52" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1595,7 +1595,7 @@
         <v>108</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D49" si="8">IF(MOD(A47,2)=1,D46+0.03,IF(MOD(A47,2)=0,D46+0.15,0))</f>
+        <f t="shared" ref="D47:D52" si="8">IF(MOD(A47,2)=1,D46+0.03,IF(MOD(A47,2)=0,D46+0.15,0))</f>
         <v>3.4899999999999975</v>
       </c>
       <c r="E47">
@@ -1655,6 +1655,81 @@
       <c r="F49">
         <f t="shared" si="10"/>
         <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999985E+203</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="8"/>
+        <v>3.8199999999999972</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:F50" si="11">E48+1</f>
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999986E+205</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="8"/>
+        <v>3.849999999999997</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:F51" si="12">E49+1</f>
+        <v>24</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999987E+207</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="8"/>
+        <v>3.9999999999999969</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:F52" si="13">E50+1</f>
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="13"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7A2A21-73C2-48D9-8BFE-64C38B6E005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56B6297-C37F-4462-82B1-6C2C23710EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B52" si="0">B3*100</f>
+        <f t="shared" ref="B4:B54" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C52" si="4">C10</f>
+        <f t="shared" ref="C11:C54" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1730,6 +1730,56 @@
       <c r="F52">
         <f t="shared" si="13"/>
         <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D54" si="14">IF(MOD(A53,2)=1,D52+0.03,IF(MOD(A53,2)=0,D52+0.15,0))</f>
+        <v>4.0299999999999967</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:F53" si="15">E51+1</f>
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="14"/>
+        <v>4.1799999999999971</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:F54" si="16">E52+1</f>
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="16"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56B6297-C37F-4462-82B1-6C2C23710EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA615F8-22A5-4120-A6F2-1C8B8047BD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -134,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B54" si="0">B3*100</f>
+        <f t="shared" ref="B4:B56" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C54" si="4">C10</f>
+        <f t="shared" ref="C11:C56" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1745,7 +1745,7 @@
         <v>108</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:D54" si="14">IF(MOD(A53,2)=1,D52+0.03,IF(MOD(A53,2)=0,D52+0.15,0))</f>
+        <f t="shared" ref="D53:D56" si="14">IF(MOD(A53,2)=1,D52+0.03,IF(MOD(A53,2)=0,D52+0.15,0))</f>
         <v>4.0299999999999967</v>
       </c>
       <c r="E53">
@@ -1780,6 +1780,56 @@
       <c r="F54">
         <f t="shared" si="16"/>
         <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+213</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="14"/>
+        <v>4.2099999999999973</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:F55" si="17">E53+1</f>
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+216</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="14"/>
+        <v>4.3599999999999977</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:F56" si="18">E54+1</f>
+        <v>27</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA615F8-22A5-4120-A6F2-1C8B8047BD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93F1AB-AA56-4BC1-AD34-5954DAE09005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B56" si="0">B3*100</f>
+        <f t="shared" ref="B4:B60" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C56" si="4">C10</f>
+        <f t="shared" ref="C11:C60" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1745,7 +1745,7 @@
         <v>108</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:D56" si="14">IF(MOD(A53,2)=1,D52+0.03,IF(MOD(A53,2)=0,D52+0.15,0))</f>
+        <f t="shared" ref="D53:D57" si="14">IF(MOD(A53,2)=1,D52+0.03,IF(MOD(A53,2)=0,D52+0.15,0))</f>
         <v>4.0299999999999967</v>
       </c>
       <c r="E53">
@@ -1830,6 +1830,81 @@
       <c r="F56">
         <f t="shared" si="18"/>
         <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="14"/>
+        <v>4.3899999999999979</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:F57" si="19">E55+1</f>
+        <v>27</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:D60" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
+        <v>4.5399999999999983</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:F60" si="21">E56+1</f>
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+222</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="20"/>
+        <v>4.5699999999999985</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="21"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB93F1AB-AA56-4BC1-AD34-5954DAE09005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2211AC38-C6F0-499E-ACE2-BDB6745A1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B60" si="0">B3*100</f>
+        <f t="shared" ref="B4:B61" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C60" si="4">C10</f>
+        <f t="shared" ref="C11:C61" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1870,11 +1870,11 @@
         <v>108</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D60" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
+        <f t="shared" ref="D58:D61" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
         <v>4.5399999999999983</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:F60" si="21">E56+1</f>
+        <f t="shared" ref="E58:F59" si="21">E56+1</f>
         <v>28</v>
       </c>
       <c r="F58">
@@ -1905,6 +1905,56 @@
       <c r="F59">
         <f t="shared" si="21"/>
         <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="20"/>
+        <v>4.7199999999999989</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:F60" si="22">E58+1</f>
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="22"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="20"/>
+        <v>4.7499999999999991</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:F61" si="23">E59+1</f>
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="23"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2211AC38-C6F0-499E-ACE2-BDB6745A1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FC99C-7BAA-4BA1-A520-20B8403074AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B61" si="0">B3*100</f>
+        <f t="shared" ref="B4:B63" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C61" si="4">C10</f>
+        <f t="shared" ref="C11:C63" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1870,7 +1870,7 @@
         <v>108</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D61" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
+        <f t="shared" ref="D58:D63" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
         <v>4.5399999999999983</v>
       </c>
       <c r="E58">
@@ -1955,6 +1955,56 @@
       <c r="F61">
         <f t="shared" si="23"/>
         <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="20"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:F62" si="24">E60+1</f>
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="20"/>
+        <v>4.93</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:F63" si="25">E61+1</f>
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="25"/>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FC99C-7BAA-4BA1-A520-20B8403074AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45A352-FE9D-4397-92F6-6EDDCBF1A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B63" si="0">B3*100</f>
+        <f t="shared" ref="B4:B65" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C63" si="4">C10</f>
+        <f t="shared" ref="C11:C65" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -1870,7 +1870,7 @@
         <v>108</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D63" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
+        <f t="shared" ref="D58:D65" si="20">IF(MOD(A58,2)=1,D57+0.03,IF(MOD(A58,2)=0,D57+0.15,0))</f>
         <v>4.5399999999999983</v>
       </c>
       <c r="E58">
@@ -2005,6 +2005,56 @@
       <c r="F63">
         <f t="shared" si="25"/>
         <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="20"/>
+        <v>5.08</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:F64" si="26">E62+1</f>
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999984E+233</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="20"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:F65" si="27">E63+1</f>
+        <v>31</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="27"/>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45A352-FE9D-4397-92F6-6EDDCBF1A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BE117D-FA94-4DED-9B54-C7FC586371E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B65" si="0">B3*100</f>
+        <f t="shared" ref="B4:B67" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C65" si="4">C10</f>
+        <f t="shared" ref="C11:C67" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -2055,6 +2055,56 @@
       <c r="F65">
         <f t="shared" si="27"/>
         <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999983E+235</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D67" si="28">IF(MOD(A66,2)=1,D65+0.03,IF(MOD(A66,2)=0,D65+0.15,0))</f>
+        <v>5.2600000000000007</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:F66" si="29">E64+1</f>
+        <v>32</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999976E+237</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="28"/>
+        <v>5.2900000000000009</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:F67" si="30">E65+1</f>
+        <v>32</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="30"/>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BE117D-FA94-4DED-9B54-C7FC586371E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E010BC-ACFC-4C87-9F20-228E7FBE755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B67" si="0">B3*100</f>
+        <f t="shared" ref="B4:B68" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C67" si="4">C10</f>
+        <f t="shared" ref="C11:C69" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -2070,7 +2070,7 @@
         <v>108</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D67" si="28">IF(MOD(A66,2)=1,D65+0.03,IF(MOD(A66,2)=0,D65+0.15,0))</f>
+        <f t="shared" ref="D66:D69" si="28">IF(MOD(A66,2)=1,D65+0.03,IF(MOD(A66,2)=0,D65+0.15,0))</f>
         <v>5.2600000000000007</v>
       </c>
       <c r="E66">
@@ -2105,6 +2105,56 @@
       <c r="F67">
         <f t="shared" si="30"/>
         <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999983E+239</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="28"/>
+        <v>5.4400000000000013</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:F68" si="31">E66+1</f>
+        <v>33</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="31"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" ref="B69" si="32">B68*100</f>
+        <v>9.9999999999999981E+241</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="28"/>
+        <v>5.4700000000000015</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:F69" si="33">E67+1</f>
+        <v>33</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="33"/>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E010BC-ACFC-4C87-9F20-228E7FBE755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECC28D-8D6E-49BB-920A-15BC178C9A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTower" sheetId="1" r:id="rId1"/>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B68" si="0">B3*100</f>
+        <f t="shared" ref="B4:B70" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C69" si="4">C10</f>
+        <f t="shared" ref="C11:C71" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -2155,6 +2155,56 @@
       <c r="F69">
         <f t="shared" si="33"/>
         <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999977E+243</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:D71" si="34">IF(MOD(A70,2)=1,D69+0.03,IF(MOD(A70,2)=0,D69+0.15,0))</f>
+        <v>5.6200000000000019</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:F70" si="35">E68+1</f>
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="35"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" ref="B71" si="36">B70*100</f>
+        <v>9.9999999999999968E+245</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="34"/>
+        <v>5.6500000000000021</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:F71" si="37">E69+1</f>
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="37"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECC28D-8D6E-49BB-920A-15BC178C9A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D40BD-1DF7-494B-8340-F0B4631599FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTower" sheetId="1" r:id="rId1"/>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B70" si="0">B3*100</f>
+        <f t="shared" ref="B4:B72" si="0">B3*100</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="C4">
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C71" si="4">C10</f>
+        <f t="shared" ref="C11:C73" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -2170,7 +2170,7 @@
         <v>108</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D71" si="34">IF(MOD(A70,2)=1,D69+0.03,IF(MOD(A70,2)=0,D69+0.15,0))</f>
+        <f t="shared" ref="D70:D73" si="34">IF(MOD(A70,2)=1,D69+0.03,IF(MOD(A70,2)=0,D69+0.15,0))</f>
         <v>5.6200000000000019</v>
       </c>
       <c r="E70">
@@ -2205,6 +2205,56 @@
       <c r="F71">
         <f t="shared" si="37"/>
         <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999967E+247</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="34"/>
+        <v>5.8000000000000025</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:F72" si="38">E70+1</f>
+        <v>35</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" ref="B73" si="39">B72*100</f>
+        <v>9.999999999999996E+249</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="34"/>
+        <v>5.8300000000000027</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:F73" si="40">E71+1</f>
+        <v>35</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="40"/>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D40BD-1DF7-494B-8340-F0B4631599FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B992E3-D74E-43C9-A94B-DF54B3995BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C73" si="4">C10</f>
+        <f t="shared" ref="C11:C74" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -2170,7 +2170,7 @@
         <v>108</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D73" si="34">IF(MOD(A70,2)=1,D69+0.03,IF(MOD(A70,2)=0,D69+0.15,0))</f>
+        <f t="shared" ref="D70:D74" si="34">IF(MOD(A70,2)=1,D69+0.03,IF(MOD(A70,2)=0,D69+0.15,0))</f>
         <v>5.6200000000000019</v>
       </c>
       <c r="E70">
@@ -2237,7 +2237,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" ref="B73" si="39">B72*100</f>
+        <f t="shared" ref="B73:B75" si="39">B72*100</f>
         <v>9.999999999999996E+249</v>
       </c>
       <c r="C73">
@@ -2255,6 +2255,56 @@
       <c r="F73">
         <f t="shared" si="40"/>
         <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999969E+251</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="34"/>
+        <v>5.9800000000000031</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:F74" si="41">E72+1</f>
+        <v>36</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="41"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999968E+253</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75" si="42">C74</f>
+        <v>108</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75" si="43">IF(MOD(A75,2)=1,D74+0.03,IF(MOD(A75,2)=0,D74+0.15,0))</f>
+        <v>6.0100000000000033</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:F75" si="44">E73+1</f>
+        <v>36</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="44"/>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTower.xlsx
+++ b/Assets/06.Table/StudentTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B992E3-D74E-43C9-A94B-DF54B3995BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC40B60-83F3-42CA-9A03-BAAD715624BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
         <v>9.9999999999999977E+125</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C74" si="4">C10</f>
+        <f t="shared" ref="C11:C76" si="4">C10</f>
         <v>108</v>
       </c>
       <c r="D11">
@@ -2237,7 +2237,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" ref="B73:B75" si="39">B72*100</f>
+        <f t="shared" ref="B73:B81" si="39">B72*100</f>
         <v>9.999999999999996E+249</v>
       </c>
       <c r="C73">
@@ -2295,7 +2295,7 @@
         <v>108</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75" si="43">IF(MOD(A75,2)=1,D74+0.03,IF(MOD(A75,2)=0,D74+0.15,0))</f>
+        <f t="shared" ref="D75:D79" si="43">IF(MOD(A75,2)=1,D74+0.03,IF(MOD(A75,2)=0,D74+0.15,0))</f>
         <v>6.0100000000000033</v>
       </c>
       <c r="E75">
@@ -2305,6 +2305,156 @@
       <c r="F75">
         <f t="shared" si="44"/>
         <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="39"/>
+        <v>9.999999999999997E+255</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="43"/>
+        <v>6.1600000000000037</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:F76" si="45">E74+1</f>
+        <v>37</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="45"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999963E+257</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C81" si="46">C76</f>
+        <v>108</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="43"/>
+        <v>6.1900000000000039</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:F77" si="47">E75+1</f>
+        <v>37</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="47"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999966E+259</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="46"/>
+        <v>108</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="43"/>
+        <v>6.3400000000000043</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ref="E78:F78" si="48">E76+1</f>
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="48"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999967E+261</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="46"/>
+        <v>108</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="43"/>
+        <v>6.3700000000000045</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:F79" si="49">E77+1</f>
+        <v>38</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="49"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999971E+263</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="46"/>
+        <v>108</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D81" si="50">IF(MOD(A80,2)=1,D79+0.03,IF(MOD(A80,2)=0,D79+0.15,0))</f>
+        <v>6.5200000000000049</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:F80" si="51">E78+1</f>
+        <v>39</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="51"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999974E+265</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="46"/>
+        <v>108</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="50"/>
+        <v>6.5500000000000052</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:F81" si="52">E79+1</f>
+        <v>39</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="52"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
